--- a/docs/paper_experiment/Accuracy/Accuracy_each_birthmark.xlsx
+++ b/docs/paper_experiment/Accuracy/Accuracy_each_birthmark.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tamadalab/.ghq/src/github.com/mitubaEX/research/docs/paper_experiment/Accuracy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4DBCCD-3C6F-0A43-A203-F25BE08C32FF}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFC1AD1-29F3-5F49-98B6-C2CA78557CB9}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41340" yWindow="-18880" windowWidth="28800" windowHeight="17540" activeTab="5" xr2:uid="{6E59B712-7900-6645-8BC8-9D25546A3FF3}"/>
+    <workbookView xWindow="48940" yWindow="-18880" windowWidth="28800" windowHeight="17540" xr2:uid="{6E59B712-7900-6645-8BC8-9D25546A3FF3}"/>
   </bookViews>
   <sheets>
     <sheet name="2gram" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,14 @@
     <sheet name="5gram" sheetId="16" r:id="rId8"/>
     <sheet name="6gram" sheetId="17" r:id="rId9"/>
     <sheet name="uc" sheetId="18" r:id="rId10"/>
+    <sheet name="MpMr" sheetId="19" r:id="rId11"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v2.0" hidden="1">MpMr!$C$1</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">MpMr!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">MpMr!$D$1</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">MpMr!$D$2:$D$11</definedName>
+  </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="28">
   <si>
     <t>pre</t>
     <phoneticPr fontId="2"/>
@@ -129,6 +136,10 @@
   </si>
   <si>
     <t>UC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2gram</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -4173,6 +4184,329 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MpMr!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>MpMr!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.86645072879033258</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97969353432166439</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99950168182384458</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>MpMr!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.94600108813928185</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.74392205089395513</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.46951076779026218</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25301812450748623</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10547131632197199</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.37980370443665E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.0488300889664478E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5977934775221444E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0991233440406688E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.9331845395901686E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D369-F942-96E2-3BF4E5A4A715}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="890484575"/>
+        <c:axId val="890486271"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="890484575"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="890486271"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="890486271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="890484575"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4373,6 +4707,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -6921,6 +7295,522 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -7125,6 +8015,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35F8B616-8F54-A446-95B9-9B3F66FAEE9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="グラフ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{636895AE-8284-FA49-A66C-F9F75EF9DCA7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7444,8 +8375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35036FAA-6C7A-E24F-8C13-863F99A34C5E}">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:K25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -8982,6 +9913,162 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B732960-8A06-C648-8A64-D3B12948656E}">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="C2" s="2">
+        <v>0.86645072879033258</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.94600108813928185</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="C3" s="2">
+        <v>0.97969353432166439</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.74392205089395513</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="C4" s="2">
+        <v>0.99950168182384458</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.46951076779026218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.25301812450748623</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.10547131632197199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3.37980370443665E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>9.0488300889664478E-3</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2.5977934775221444E-3</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1.0991233440406688E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>7.9331845395901686E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77675710-C32E-EA47-B86A-669AA3A42FCA}">
   <dimension ref="A1:K7"/>
@@ -10024,8 +11111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF941FDA-A8D7-1C4C-8B3F-706CB73D5478}">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
